--- a/data-raw/dependent_data/miscellaneous_MMEIG_2019.xx.xx.xlsx
+++ b/data-raw/dependent_data/miscellaneous_MMEIG_2019.xx.xx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_26dd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B8C37560-66BA-4D8C-8358-A751C57C3515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C2591C-D5E3-4906-8B45-0688CB466141}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B8C37560-66BA-4D8C-8358-A751C57C3515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F2CBD2-D37B-4A5F-B7B2-B805969614D3}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="135">
   <si>
     <t>year_start</t>
   </si>
@@ -325,10 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">ENSME 1997
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 1992
 </t>
   </si>
   <si>
@@ -1349,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="M205" sqref="M205"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6285,19 +6281,19 @@
     </row>
     <row r="121" spans="1:13" ht="45.75">
       <c r="A121">
-        <v>1985.16</v>
+        <v>1998.67</v>
       </c>
       <c r="B121">
-        <v>1992.16</v>
+        <v>1999.67</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="2">
-        <v>57</v>
+      <c r="E121" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>14</v>
@@ -6306,7 +6302,7 @@
         <v>14</v>
       </c>
       <c r="H121" s="2">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="I121" t="s">
         <v>24</v>
@@ -6321,21 +6317,21 @@
         <v>14</v>
       </c>
       <c r="M121" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="60.75">
+      <c r="A122">
+        <v>2004</v>
+      </c>
+      <c r="B122">
+        <v>2005</v>
+      </c>
+      <c r="C122" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="45.75">
-      <c r="A122">
-        <v>1998.67</v>
-      </c>
-      <c r="B122">
-        <v>1999.67</v>
-      </c>
-      <c r="C122" t="s">
-        <v>86</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>14</v>
+      <c r="D122" s="2">
+        <v>71</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>14</v>
@@ -6347,13 +6343,13 @@
         <v>14</v>
       </c>
       <c r="H122" s="2">
-        <v>255</v>
+        <v>315.86</v>
       </c>
       <c r="I122" t="s">
-        <v>24</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J122" s="2">
+        <v>22478</v>
       </c>
       <c r="K122" t="b">
         <v>1</v>
@@ -6367,98 +6363,98 @@
     </row>
     <row r="123" spans="1:13" ht="60.75">
       <c r="A123">
-        <v>2004</v>
+        <v>2008.38</v>
       </c>
       <c r="B123">
-        <v>2005</v>
+        <v>2009.38</v>
       </c>
       <c r="C123" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D123" s="2">
-        <v>71</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>14</v>
+        <v>160</v>
+      </c>
+      <c r="E123" s="2">
+        <v>172</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1496</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.106951872</v>
       </c>
       <c r="H123" s="2">
-        <v>315.86</v>
+        <v>229</v>
       </c>
       <c r="I123" t="s">
         <v>15</v>
       </c>
       <c r="J123" s="2">
-        <v>22478</v>
+        <v>69775</v>
       </c>
       <c r="K123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="60.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124">
-        <v>2008.38</v>
+        <v>1991</v>
       </c>
       <c r="B124">
-        <v>2009.38</v>
+        <v>1992</v>
       </c>
       <c r="C124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D124" s="2">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="E124" s="2">
-        <v>172</v>
-      </c>
-      <c r="F124" s="2">
-        <v>1496</v>
-      </c>
-      <c r="G124" s="2">
-        <v>0.106951872</v>
+        <v>13</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H124" s="2">
-        <v>229</v>
+        <v>27.4</v>
       </c>
       <c r="I124" t="s">
         <v>15</v>
       </c>
       <c r="J124" s="2">
-        <v>69775</v>
+        <v>47497</v>
       </c>
       <c r="K124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>16</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="M124" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B125">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D125" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2">
         <v>13</v>
@@ -6470,13 +6466,13 @@
         <v>14</v>
       </c>
       <c r="H125" s="2">
-        <v>27.4</v>
+        <v>15.9</v>
       </c>
       <c r="I125" t="s">
         <v>15</v>
       </c>
       <c r="J125" s="2">
-        <v>47497</v>
+        <v>56747</v>
       </c>
       <c r="K125" t="b">
         <v>1</v>
@@ -6485,349 +6481,349 @@
         <v>14</v>
       </c>
       <c r="M125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B126">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4</v>
+      </c>
+      <c r="E126" s="2">
+        <v>4</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="2">
+        <v>6</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="2">
+        <v>66667</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126" t="s">
         <v>91</v>
-      </c>
-      <c r="D126" s="2">
-        <v>9</v>
-      </c>
-      <c r="E126" s="2">
-        <v>13</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="2">
-        <v>15.9</v>
-      </c>
-      <c r="I126" t="s">
-        <v>15</v>
-      </c>
-      <c r="J126" s="2">
-        <v>56747</v>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="s">
-        <v>14</v>
-      </c>
-      <c r="M126" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B127">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" s="2">
+        <v>13</v>
+      </c>
+      <c r="E127" s="2">
+        <v>13</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="2">
+        <v>53388</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127" t="s">
         <v>91</v>
-      </c>
-      <c r="D127" s="2">
-        <v>4</v>
-      </c>
-      <c r="E127" s="2">
-        <v>4</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="2">
-        <v>6</v>
-      </c>
-      <c r="I127" t="s">
-        <v>15</v>
-      </c>
-      <c r="J127" s="2">
-        <v>66667</v>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="s">
-        <v>14</v>
-      </c>
-      <c r="M127" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B128">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D128" s="2">
+        <v>12</v>
+      </c>
+      <c r="E128" s="2">
+        <v>15</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="2">
+        <v>22</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="2">
+        <v>54519</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128" t="s">
         <v>91</v>
-      </c>
-      <c r="D128" s="2">
-        <v>13</v>
-      </c>
-      <c r="E128" s="2">
-        <v>13</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="2">
-        <v>24.4</v>
-      </c>
-      <c r="I128" t="s">
-        <v>15</v>
-      </c>
-      <c r="J128" s="2">
-        <v>53388</v>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="s">
-        <v>14</v>
-      </c>
-      <c r="M128" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B129">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C129" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="2">
+        <v>10</v>
+      </c>
+      <c r="E129" s="2">
+        <v>10</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="2">
+        <v>21</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="2">
+        <v>47619</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129" t="s">
         <v>91</v>
-      </c>
-      <c r="D129" s="2">
-        <v>12</v>
-      </c>
-      <c r="E129" s="2">
-        <v>15</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="2">
-        <v>22</v>
-      </c>
-      <c r="I129" t="s">
-        <v>15</v>
-      </c>
-      <c r="J129" s="2">
-        <v>54519</v>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="s">
-        <v>14</v>
-      </c>
-      <c r="M129" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B130">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C130" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="2">
+        <v>6</v>
+      </c>
+      <c r="E130" s="2">
+        <v>8</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="2">
+        <v>44944</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130" t="s">
         <v>91</v>
-      </c>
-      <c r="D130" s="2">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="2">
-        <v>21</v>
-      </c>
-      <c r="I130" t="s">
-        <v>15</v>
-      </c>
-      <c r="J130" s="2">
-        <v>47619</v>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="s">
-        <v>14</v>
-      </c>
-      <c r="M130" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B131">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D131" s="2">
+        <v>9</v>
+      </c>
+      <c r="E131" s="2">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="2">
+        <v>48662</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131" t="s">
         <v>91</v>
-      </c>
-      <c r="D131" s="2">
-        <v>6</v>
-      </c>
-      <c r="E131" s="2">
-        <v>8</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="2">
-        <v>13.3</v>
-      </c>
-      <c r="I131" t="s">
-        <v>15</v>
-      </c>
-      <c r="J131" s="2">
-        <v>44944</v>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="s">
-        <v>14</v>
-      </c>
-      <c r="M131" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B132">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C132" t="s">
+        <v>90</v>
+      </c>
+      <c r="D132" s="2">
+        <v>7</v>
+      </c>
+      <c r="E132" s="2">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="2">
+        <v>51000</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132" t="s">
         <v>91</v>
-      </c>
-      <c r="D132" s="2">
-        <v>9</v>
-      </c>
-      <c r="E132" s="2">
-        <v>9</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="I132" t="s">
-        <v>15</v>
-      </c>
-      <c r="J132" s="2">
-        <v>48662</v>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="s">
-        <v>14</v>
-      </c>
-      <c r="M132" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B133">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C133" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" s="2">
+        <v>9</v>
+      </c>
+      <c r="E133" s="2">
+        <v>13</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="2">
+        <v>55942</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133" t="s">
         <v>91</v>
-      </c>
-      <c r="D133" s="2">
-        <v>7</v>
-      </c>
-      <c r="E133" s="2">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="I133" t="s">
-        <v>15</v>
-      </c>
-      <c r="J133" s="2">
-        <v>51000</v>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="s">
-        <v>14</v>
-      </c>
-      <c r="M133" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B134">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D134" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E134" s="2">
         <v>13</v>
@@ -6839,13 +6835,13 @@
         <v>14</v>
       </c>
       <c r="H134" s="2">
-        <v>16.100000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="I134" t="s">
         <v>15</v>
       </c>
       <c r="J134" s="2">
-        <v>55942</v>
+        <v>51948</v>
       </c>
       <c r="K134" t="b">
         <v>1</v>
@@ -6854,311 +6850,311 @@
         <v>14</v>
       </c>
       <c r="M134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B135">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C135" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="2">
+        <v>18</v>
+      </c>
+      <c r="E135" s="2">
+        <v>21</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="2">
+        <v>47949</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135" t="s">
         <v>91</v>
-      </c>
-      <c r="D135" s="2">
-        <v>12</v>
-      </c>
-      <c r="E135" s="2">
-        <v>13</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="I135" t="s">
-        <v>15</v>
-      </c>
-      <c r="J135" s="2">
-        <v>51948</v>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="s">
-        <v>14</v>
-      </c>
-      <c r="M135" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B136">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C136" t="s">
+        <v>90</v>
+      </c>
+      <c r="D136" s="2">
+        <v>10</v>
+      </c>
+      <c r="E136" s="2">
+        <v>13</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="2">
+        <v>43134</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136" t="s">
         <v>91</v>
-      </c>
-      <c r="D136" s="2">
-        <v>18</v>
-      </c>
-      <c r="E136" s="2">
-        <v>21</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="I136" t="s">
-        <v>15</v>
-      </c>
-      <c r="J136" s="2">
-        <v>47949</v>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="s">
-        <v>14</v>
-      </c>
-      <c r="M136" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B137">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C137" t="s">
+        <v>90</v>
+      </c>
+      <c r="D137" s="2">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="2">
+        <v>43262</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137" t="s">
         <v>91</v>
-      </c>
-      <c r="D137" s="2">
-        <v>10</v>
-      </c>
-      <c r="E137" s="2">
-        <v>13</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H137" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="I137" t="s">
-        <v>15</v>
-      </c>
-      <c r="J137" s="2">
-        <v>43134</v>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="s">
-        <v>14</v>
-      </c>
-      <c r="M137" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B138">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C138" t="s">
+        <v>90</v>
+      </c>
+      <c r="D138" s="2">
+        <v>7</v>
+      </c>
+      <c r="E138" s="2">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="2">
+        <v>45599</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138" t="s">
         <v>91</v>
-      </c>
-      <c r="D138" s="2">
-        <v>8</v>
-      </c>
-      <c r="E138" s="2">
-        <v>11</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="I138" t="s">
-        <v>15</v>
-      </c>
-      <c r="J138" s="2">
-        <v>43262</v>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="s">
-        <v>14</v>
-      </c>
-      <c r="M138" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B139">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C139" t="s">
+        <v>90</v>
+      </c>
+      <c r="D139" s="2">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2">
+        <v>7</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="2">
+        <v>49399</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>14</v>
+      </c>
+      <c r="M139" t="s">
         <v>91</v>
-      </c>
-      <c r="D139" s="2">
-        <v>7</v>
-      </c>
-      <c r="E139" s="2">
-        <v>12</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="I139" t="s">
-        <v>15</v>
-      </c>
-      <c r="J139" s="2">
-        <v>45599</v>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>14</v>
-      </c>
-      <c r="M139" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B140">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" s="2">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2">
+        <v>16</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="2">
+        <v>52619</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140" t="s">
         <v>91</v>
-      </c>
-      <c r="D140" s="2">
-        <v>6</v>
-      </c>
-      <c r="E140" s="2">
-        <v>7</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="I140" t="s">
-        <v>15</v>
-      </c>
-      <c r="J140" s="2">
-        <v>49399</v>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="s">
-        <v>14</v>
-      </c>
-      <c r="M140" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B141">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C141" t="s">
+        <v>90</v>
+      </c>
+      <c r="D141" s="2">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="2">
+        <v>58331</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141" t="s">
         <v>91</v>
-      </c>
-      <c r="D141" s="2">
-        <v>11</v>
-      </c>
-      <c r="E141" s="2">
-        <v>16</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="I141" t="s">
-        <v>15</v>
-      </c>
-      <c r="J141" s="2">
-        <v>52619</v>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="s">
-        <v>14</v>
-      </c>
-      <c r="M141" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B142">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D142" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>14</v>
@@ -7173,7 +7169,7 @@
         <v>15</v>
       </c>
       <c r="J142" s="2">
-        <v>58331</v>
+        <v>64735</v>
       </c>
       <c r="K142" t="b">
         <v>1</v>
@@ -7182,229 +7178,229 @@
         <v>14</v>
       </c>
       <c r="M142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B143">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C143" t="s">
+        <v>90</v>
+      </c>
+      <c r="D143" s="2">
+        <v>16</v>
+      </c>
+      <c r="E143" s="2">
+        <v>17</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="2">
+        <v>65537</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143" t="s">
         <v>91</v>
-      </c>
-      <c r="D143" s="2">
-        <v>10</v>
-      </c>
-      <c r="E143" s="2">
-        <v>14</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="I143" t="s">
-        <v>15</v>
-      </c>
-      <c r="J143" s="2">
-        <v>64735</v>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="s">
-        <v>14</v>
-      </c>
-      <c r="M143" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B144">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C144" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" s="2">
+        <v>11</v>
+      </c>
+      <c r="E144" s="2">
+        <v>14</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="2">
+        <v>67922</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" t="s">
         <v>91</v>
-      </c>
-      <c r="D144" s="2">
-        <v>16</v>
-      </c>
-      <c r="E144" s="2">
-        <v>17</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" s="2">
-        <v>24.4</v>
-      </c>
-      <c r="I144" t="s">
-        <v>15</v>
-      </c>
-      <c r="J144" s="2">
-        <v>65537</v>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="s">
-        <v>14</v>
-      </c>
-      <c r="M144" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B145">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C145" t="s">
+        <v>90</v>
+      </c>
+      <c r="D145" s="2">
+        <v>12</v>
+      </c>
+      <c r="E145" s="2">
+        <v>14</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="2">
+        <v>72867</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145" t="s">
         <v>91</v>
-      </c>
-      <c r="D145" s="2">
-        <v>11</v>
-      </c>
-      <c r="E145" s="2">
-        <v>14</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H145" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="I145" t="s">
-        <v>15</v>
-      </c>
-      <c r="J145" s="2">
-        <v>67922</v>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="s">
-        <v>14</v>
-      </c>
-      <c r="M145" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B146">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C146" t="s">
+        <v>90</v>
+      </c>
+      <c r="D146" s="2">
+        <v>9</v>
+      </c>
+      <c r="E146" s="2">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="2">
+        <v>79417</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>14</v>
+      </c>
+      <c r="M146" t="s">
         <v>91</v>
-      </c>
-      <c r="D146" s="2">
-        <v>12</v>
-      </c>
-      <c r="E146" s="2">
-        <v>14</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="I146" t="s">
-        <v>15</v>
-      </c>
-      <c r="J146" s="2">
-        <v>72867</v>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="s">
-        <v>14</v>
-      </c>
-      <c r="M146" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B147">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C147" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147" s="2">
+        <v>16</v>
+      </c>
+      <c r="E147" s="2">
+        <v>18</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="2">
+        <v>82981</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>14</v>
+      </c>
+      <c r="M147" t="s">
         <v>91</v>
-      </c>
-      <c r="D147" s="2">
-        <v>9</v>
-      </c>
-      <c r="E147" s="2">
-        <v>12</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="I147" t="s">
-        <v>15</v>
-      </c>
-      <c r="J147" s="2">
-        <v>79417</v>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="s">
-        <v>14</v>
-      </c>
-      <c r="M147" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B148">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C148" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D148" s="2">
         <v>16</v>
       </c>
       <c r="E148" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>14</v>
@@ -7413,13 +7409,13 @@
         <v>14</v>
       </c>
       <c r="H148" s="2">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="I148" t="s">
         <v>15</v>
       </c>
       <c r="J148" s="2">
-        <v>82981</v>
+        <v>86286</v>
       </c>
       <c r="K148" t="b">
         <v>1</v>
@@ -7428,147 +7424,147 @@
         <v>14</v>
       </c>
       <c r="M148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B149">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C149" t="s">
+        <v>90</v>
+      </c>
+      <c r="D149" s="2">
+        <v>11</v>
+      </c>
+      <c r="E149" s="2">
+        <v>15</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="2">
+        <v>88346</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>14</v>
+      </c>
+      <c r="M149" t="s">
         <v>91</v>
-      </c>
-      <c r="D149" s="2">
-        <v>16</v>
-      </c>
-      <c r="E149" s="2">
-        <v>17</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="I149" t="s">
-        <v>15</v>
-      </c>
-      <c r="J149" s="2">
-        <v>86286</v>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="s">
-        <v>14</v>
-      </c>
-      <c r="M149" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B150">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C150" t="s">
+        <v>90</v>
+      </c>
+      <c r="D150" s="2">
+        <v>19</v>
+      </c>
+      <c r="E150" s="2">
+        <v>21</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="2">
+        <v>21</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="2">
+        <v>90371</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150" t="s">
         <v>91</v>
-      </c>
-      <c r="D150" s="2">
-        <v>11</v>
-      </c>
-      <c r="E150" s="2">
-        <v>15</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H150" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="I150" t="s">
-        <v>15</v>
-      </c>
-      <c r="J150" s="2">
-        <v>88346</v>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="s">
-        <v>14</v>
-      </c>
-      <c r="M150" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B151">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C151" t="s">
+        <v>90</v>
+      </c>
+      <c r="D151" s="2">
+        <v>13</v>
+      </c>
+      <c r="E151" s="2">
+        <v>15</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="2">
+        <v>85768</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151" t="s">
         <v>91</v>
       </c>
-      <c r="D151" s="2">
-        <v>19</v>
-      </c>
-      <c r="E151" s="2">
-        <v>21</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H151" s="2">
-        <v>21</v>
-      </c>
-      <c r="I151" t="s">
-        <v>15</v>
-      </c>
-      <c r="J151" s="2">
-        <v>90371</v>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="s">
-        <v>14</v>
-      </c>
-      <c r="M151" t="s">
+    </row>
+    <row r="152" spans="1:13" ht="137.25">
+      <c r="A152">
+        <v>2002</v>
+      </c>
+      <c r="B152">
+        <v>2003</v>
+      </c>
+      <c r="C152" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152">
-        <v>2018</v>
-      </c>
-      <c r="B152">
-        <v>2019</v>
-      </c>
-      <c r="C152" t="s">
-        <v>91</v>
-      </c>
       <c r="D152" s="2">
-        <v>13</v>
-      </c>
-      <c r="E152" s="2">
-        <v>15</v>
+        <v>734</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>14</v>
@@ -7577,13 +7573,13 @@
         <v>14</v>
       </c>
       <c r="H152" s="2">
-        <v>15.2</v>
+        <v>118.3</v>
       </c>
       <c r="I152" t="s">
         <v>15</v>
       </c>
-      <c r="J152" s="2">
-        <v>85768</v>
+      <c r="J152" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K152" t="b">
         <v>1</v>
@@ -7591,406 +7587,406 @@
       <c r="L152" t="s">
         <v>14</v>
       </c>
-      <c r="M152" t="s">
-        <v>92</v>
+      <c r="M152" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="137.25">
       <c r="A153">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B153">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C153" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" s="2">
+        <v>766</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="2">
+        <v>123.8</v>
+      </c>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>14</v>
+      </c>
+      <c r="M153" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D153" s="2">
-        <v>734</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" s="2">
-        <v>118.3</v>
-      </c>
-      <c r="I153" t="s">
-        <v>15</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="s">
-        <v>14</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="137.25">
       <c r="A154">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B154">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C154" t="s">
+        <v>92</v>
+      </c>
+      <c r="D154" s="2">
+        <v>746</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="2">
+        <v>120.8</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>14</v>
+      </c>
+      <c r="M154" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D154" s="2">
-        <v>766</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H154" s="2">
-        <v>123.8</v>
-      </c>
-      <c r="I154" t="s">
-        <v>15</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="s">
-        <v>14</v>
-      </c>
-      <c r="M154" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="137.25">
       <c r="A155">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B155">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C155" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" s="2">
+        <v>703</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="2">
+        <v>114.1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>14</v>
+      </c>
+      <c r="M155" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D155" s="2">
-        <v>746</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" s="2">
-        <v>120.8</v>
-      </c>
-      <c r="I155" t="s">
-        <v>15</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="s">
-        <v>14</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="137.25">
       <c r="A156">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B156">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C156" t="s">
+        <v>92</v>
+      </c>
+      <c r="D156" s="2">
+        <v>706</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="2">
+        <v>114.9</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>14</v>
+      </c>
+      <c r="M156" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D156" s="2">
-        <v>703</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H156" s="2">
-        <v>114.1</v>
-      </c>
-      <c r="I156" t="s">
-        <v>15</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="s">
-        <v>14</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="137.25">
       <c r="A157">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B157">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C157" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="2">
+        <v>676</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>14</v>
+      </c>
+      <c r="M157" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D157" s="2">
-        <v>706</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" s="2">
-        <v>114.9</v>
-      </c>
-      <c r="I157" t="s">
-        <v>15</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="s">
-        <v>14</v>
-      </c>
-      <c r="M157" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="137.25">
       <c r="A158">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B158">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C158" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" s="2">
+        <v>656</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="2">
+        <v>107.9</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="s">
+        <v>14</v>
+      </c>
+      <c r="M158" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D158" s="2">
-        <v>676</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H158" s="2">
-        <v>110.5</v>
-      </c>
-      <c r="I158" t="s">
-        <v>15</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="s">
-        <v>14</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="137.25">
       <c r="A159">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B159">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C159" t="s">
+        <v>92</v>
+      </c>
+      <c r="D159" s="2">
+        <v>580</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="2">
+        <v>96.1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>14</v>
+      </c>
+      <c r="M159" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D159" s="2">
-        <v>656</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H159" s="2">
-        <v>107.9</v>
-      </c>
-      <c r="I159" t="s">
-        <v>15</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="s">
-        <v>14</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="137.25">
       <c r="A160">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B160">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C160" t="s">
+        <v>92</v>
+      </c>
+      <c r="D160" s="2">
+        <v>574</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>14</v>
+      </c>
+      <c r="M160" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D160" s="2">
-        <v>580</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H160" s="2">
-        <v>96.1</v>
-      </c>
-      <c r="I160" t="s">
-        <v>15</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="s">
-        <v>14</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="137.25">
       <c r="A161">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B161">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C161" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" s="2">
+        <v>550</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>14</v>
+      </c>
+      <c r="M161" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D161" s="2">
-        <v>574</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" s="2">
-        <v>95.9</v>
-      </c>
-      <c r="I161" t="s">
-        <v>15</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="s">
-        <v>14</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="137.25">
+    </row>
+    <row r="162" spans="1:13" ht="30.75">
       <c r="A162">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B162">
         <v>2012</v>
       </c>
       <c r="C162" t="s">
-        <v>93</v>
-      </c>
-      <c r="D162" s="2">
-        <v>550</v>
+        <v>94</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>14</v>
+      <c r="F162" s="2">
+        <v>1084</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.123</v>
       </c>
       <c r="H162" s="2">
-        <v>92.7</v>
+        <v>221</v>
       </c>
       <c r="I162" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>14</v>
@@ -8002,33 +7998,33 @@
         <v>14</v>
       </c>
       <c r="M162" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="45.75">
+      <c r="A163">
+        <v>1991</v>
+      </c>
+      <c r="B163">
+        <v>1998</v>
+      </c>
+      <c r="C163" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="30.75">
-      <c r="A163">
-        <v>2004</v>
-      </c>
-      <c r="B163">
-        <v>2012</v>
-      </c>
-      <c r="C163" t="s">
-        <v>95</v>
-      </c>
       <c r="D163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="2">
-        <v>1084</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0.123</v>
+      <c r="F163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H163" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="I163" t="s">
         <v>24</v>
@@ -8046,21 +8042,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="45.75">
+    <row r="164" spans="1:13" ht="76.5">
       <c r="A164">
-        <v>1991</v>
+        <v>1997.42</v>
       </c>
       <c r="B164">
-        <v>1998</v>
+        <v>1998.33</v>
       </c>
       <c r="C164" t="s">
-        <v>95</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="D164" s="2">
+        <v>92</v>
+      </c>
+      <c r="E164" s="2">
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>14</v>
@@ -8069,13 +8065,13 @@
         <v>14</v>
       </c>
       <c r="H164" s="2">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I164" t="s">
-        <v>24</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J164" s="2">
+        <v>399601</v>
       </c>
       <c r="K164" t="b">
         <v>1</v>
@@ -8084,59 +8080,59 @@
         <v>14</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="76.5">
       <c r="A165">
-        <v>1997.42</v>
+        <v>2006.14</v>
       </c>
       <c r="B165">
-        <v>1998.33</v>
+        <v>2007.14</v>
       </c>
       <c r="C165" t="s">
-        <v>98</v>
-      </c>
-      <c r="D165" s="2">
-        <v>92</v>
-      </c>
-      <c r="E165" s="2">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>14</v>
+      <c r="G165" s="2">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H165" s="2">
-        <v>23</v>
+        <v>702</v>
       </c>
       <c r="I165" t="s">
-        <v>15</v>
-      </c>
-      <c r="J165" s="2">
-        <v>399601</v>
+        <v>24</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="76.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="45.75">
       <c r="A166">
-        <v>2006.14</v>
+        <v>2004</v>
       </c>
       <c r="B166">
-        <v>2007.14</v>
+        <v>2006</v>
       </c>
       <c r="C166" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>14</v>
@@ -8147,40 +8143,40 @@
       <c r="F166" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G166" s="2">
-        <v>4.2999999999999997E-2</v>
+      <c r="G166" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H166" s="2">
-        <v>702</v>
+        <v>2037</v>
       </c>
       <c r="I166" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="45.75">
       <c r="A167">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="B167">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C167" t="s">
-        <v>102</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
+      </c>
+      <c r="D167" s="2">
+        <v>158</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>14</v>
@@ -8192,13 +8188,13 @@
         <v>14</v>
       </c>
       <c r="H167" s="2">
-        <v>2037</v>
+        <v>61</v>
       </c>
       <c r="I167" t="s">
         <v>15</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>14</v>
+      <c r="J167" s="2">
+        <v>337683</v>
       </c>
       <c r="K167" t="b">
         <v>1</v>
@@ -8207,800 +8203,800 @@
         <v>14</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="45.75">
       <c r="A168">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B168">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C168" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" s="2">
+        <v>183</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" s="2">
+        <v>62</v>
+      </c>
+      <c r="I168" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="2">
+        <v>341006</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>14</v>
+      </c>
+      <c r="M168" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D168" s="2">
-        <v>158</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" s="2">
-        <v>61</v>
-      </c>
-      <c r="I168" t="s">
-        <v>15</v>
-      </c>
-      <c r="J168" s="2">
-        <v>337683</v>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="s">
-        <v>14</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="45.75">
       <c r="A169">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B169">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C169" t="s">
+        <v>103</v>
+      </c>
+      <c r="D169" s="2">
+        <v>198</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" s="2">
+        <v>63</v>
+      </c>
+      <c r="I169" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="2">
+        <v>321996</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>14</v>
+      </c>
+      <c r="M169" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D169" s="2">
-        <v>183</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" s="2">
-        <v>62</v>
-      </c>
-      <c r="I169" t="s">
-        <v>15</v>
-      </c>
-      <c r="J169" s="2">
-        <v>341006</v>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="s">
-        <v>14</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="45.75">
       <c r="A170">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B170">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C170" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" s="2">
+        <v>160</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" s="2">
+        <v>53</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="2">
+        <v>315935</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>14</v>
+      </c>
+      <c r="M170" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D170" s="2">
-        <v>198</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" s="2">
-        <v>63</v>
-      </c>
-      <c r="I170" t="s">
-        <v>15</v>
-      </c>
-      <c r="J170" s="2">
-        <v>321996</v>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="s">
-        <v>14</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="45.75">
       <c r="A171">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B171">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C171" t="s">
+        <v>103</v>
+      </c>
+      <c r="D171" s="2">
+        <v>157</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="I171" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="2">
+        <v>308459</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="s">
+        <v>14</v>
+      </c>
+      <c r="M171" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D171" s="2">
-        <v>160</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" s="2">
-        <v>53</v>
-      </c>
-      <c r="I171" t="s">
-        <v>15</v>
-      </c>
-      <c r="J171" s="2">
-        <v>315935</v>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="s">
-        <v>14</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="45.75">
       <c r="A172">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B172">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C172" t="s">
+        <v>103</v>
+      </c>
+      <c r="D172" s="2">
+        <v>179</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="2">
+        <v>55.6</v>
+      </c>
+      <c r="I172" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="2">
+        <v>310880</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>14</v>
+      </c>
+      <c r="M172" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D172" s="2">
-        <v>157</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" s="2">
-        <v>55.8</v>
-      </c>
-      <c r="I172" t="s">
-        <v>15</v>
-      </c>
-      <c r="J172" s="2">
-        <v>308459</v>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="s">
-        <v>14</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="45.75">
       <c r="A173">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B173">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C173" t="s">
+        <v>103</v>
+      </c>
+      <c r="D173" s="2">
+        <v>167</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="2">
+        <v>5628</v>
+      </c>
+      <c r="G173" s="2">
+        <v>2.9673063E-2</v>
+      </c>
+      <c r="H173" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="I173" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="2">
+        <v>356213</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>14</v>
+      </c>
+      <c r="M173" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D173" s="2">
-        <v>179</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H173" s="2">
-        <v>55.6</v>
-      </c>
-      <c r="I173" t="s">
-        <v>15</v>
-      </c>
-      <c r="J173" s="2">
-        <v>310880</v>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="s">
-        <v>14</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="45.75">
       <c r="A174">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B174">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C174" t="s">
+        <v>103</v>
+      </c>
+      <c r="D174" s="2">
+        <v>194</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="2">
+        <v>5553</v>
+      </c>
+      <c r="G174" s="2">
+        <v>3.4936070999999999E-2</v>
+      </c>
+      <c r="H174" s="2">
+        <v>53.4</v>
+      </c>
+      <c r="I174" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="2">
+        <v>363549</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>14</v>
+      </c>
+      <c r="M174" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D174" s="2">
-        <v>167</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" s="2">
-        <v>5628</v>
-      </c>
-      <c r="G174" s="2">
-        <v>2.9673063E-2</v>
-      </c>
-      <c r="H174" s="2">
-        <v>46.6</v>
-      </c>
-      <c r="I174" t="s">
-        <v>15</v>
-      </c>
-      <c r="J174" s="2">
-        <v>356213</v>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="s">
-        <v>14</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="45.75">
       <c r="A175">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B175">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C175" t="s">
+        <v>103</v>
+      </c>
+      <c r="D175" s="2">
+        <v>154</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="2">
+        <v>5684</v>
+      </c>
+      <c r="G175" s="2">
+        <v>2.7093596000000001E-2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="2">
+        <v>363343</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>14</v>
+      </c>
+      <c r="M175" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D175" s="2">
-        <v>194</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="2">
-        <v>5553</v>
-      </c>
-      <c r="G175" s="2">
-        <v>3.4936070999999999E-2</v>
-      </c>
-      <c r="H175" s="2">
-        <v>53.4</v>
-      </c>
-      <c r="I175" t="s">
-        <v>15</v>
-      </c>
-      <c r="J175" s="2">
-        <v>363549</v>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="s">
-        <v>14</v>
-      </c>
-      <c r="M175" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="45.75">
       <c r="A176">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B176">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C176" t="s">
+        <v>103</v>
+      </c>
+      <c r="D176" s="2">
+        <v>144</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="2">
+        <v>5441</v>
+      </c>
+      <c r="G176" s="2">
+        <v>2.6465723E-2</v>
+      </c>
+      <c r="H176" s="2">
+        <v>38</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="2">
+        <v>360220</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>14</v>
+      </c>
+      <c r="M176" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D176" s="2">
-        <v>154</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" s="2">
-        <v>5684</v>
-      </c>
-      <c r="G176" s="2">
-        <v>2.7093596000000001E-2</v>
-      </c>
-      <c r="H176" s="2">
-        <v>42.4</v>
-      </c>
-      <c r="I176" t="s">
-        <v>15</v>
-      </c>
-      <c r="J176" s="2">
-        <v>363343</v>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="s">
-        <v>14</v>
-      </c>
-      <c r="M176" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="45.75">
       <c r="A177">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B177">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C177" t="s">
+        <v>103</v>
+      </c>
+      <c r="D177" s="2">
+        <v>164</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="2">
+        <v>9902</v>
+      </c>
+      <c r="G177" s="2">
+        <v>1.6562311E-2</v>
+      </c>
+      <c r="H177" s="2">
+        <v>44</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="2">
+        <v>370424</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>14</v>
+      </c>
+      <c r="M177" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D177" s="2">
-        <v>144</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" s="2">
-        <v>5441</v>
-      </c>
-      <c r="G177" s="2">
-        <v>2.6465723E-2</v>
-      </c>
-      <c r="H177" s="2">
-        <v>38</v>
-      </c>
-      <c r="I177" t="s">
-        <v>15</v>
-      </c>
-      <c r="J177" s="2">
-        <v>360220</v>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="s">
-        <v>14</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="45.75">
       <c r="A178">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B178">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C178" t="s">
+        <v>103</v>
+      </c>
+      <c r="D178" s="2">
+        <v>146</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="2">
+        <v>5243</v>
+      </c>
+      <c r="G178" s="2">
+        <v>2.7846652999999999E-2</v>
+      </c>
+      <c r="H178" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I178" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" s="2">
+        <v>371264</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>14</v>
+      </c>
+      <c r="M178" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D178" s="2">
-        <v>164</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178" s="2">
-        <v>9902</v>
-      </c>
-      <c r="G178" s="2">
-        <v>1.6562311E-2</v>
-      </c>
-      <c r="H178" s="2">
-        <v>44</v>
-      </c>
-      <c r="I178" t="s">
-        <v>15</v>
-      </c>
-      <c r="J178" s="2">
-        <v>370424</v>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="s">
-        <v>14</v>
-      </c>
-      <c r="M178" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="45.75">
       <c r="A179">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B179">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C179" t="s">
+        <v>103</v>
+      </c>
+      <c r="D179" s="2">
+        <v>141</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="2">
+        <v>380069</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>14</v>
+      </c>
+      <c r="M179" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D179" s="2">
-        <v>146</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" s="2">
-        <v>5243</v>
-      </c>
-      <c r="G179" s="2">
-        <v>2.7846652999999999E-2</v>
-      </c>
-      <c r="H179" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I179" t="s">
-        <v>15</v>
-      </c>
-      <c r="J179" s="2">
-        <v>371264</v>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="s">
-        <v>14</v>
-      </c>
-      <c r="M179" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="45.75">
       <c r="A180">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B180">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C180" t="s">
+        <v>103</v>
+      </c>
+      <c r="D180" s="2">
+        <v>134</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="I180" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" s="2">
+        <v>379912</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>14</v>
+      </c>
+      <c r="M180" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D180" s="2">
-        <v>141</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" s="2">
-        <v>38.4</v>
-      </c>
-      <c r="I180" t="s">
-        <v>15</v>
-      </c>
-      <c r="J180" s="2">
-        <v>380069</v>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="s">
-        <v>14</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="45.75">
       <c r="A181">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B181">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C181" t="s">
+        <v>103</v>
+      </c>
+      <c r="D181" s="2">
+        <v>160</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I181" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>14</v>
+      </c>
+      <c r="M181" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D181" s="2">
-        <v>134</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H181" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="I181" t="s">
-        <v>15</v>
-      </c>
-      <c r="J181" s="2">
-        <v>379912</v>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="s">
-        <v>14</v>
-      </c>
-      <c r="M181" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="45.75">
       <c r="A182">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B182">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C182" t="s">
+        <v>103</v>
+      </c>
+      <c r="D182" s="2">
+        <v>126</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>15</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>14</v>
+      </c>
+      <c r="M182" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D182" s="2">
-        <v>160</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H182" s="2">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="I182" t="s">
-        <v>15</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="s">
-        <v>14</v>
-      </c>
-      <c r="M182" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="45.75">
       <c r="A183">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B183">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C183" t="s">
+        <v>103</v>
+      </c>
+      <c r="D183" s="2">
+        <v>118</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="I183" t="s">
+        <v>15</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>14</v>
+      </c>
+      <c r="M183" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D183" s="2">
-        <v>126</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H183" s="2">
-        <v>31.1</v>
-      </c>
-      <c r="I183" t="s">
-        <v>15</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="s">
-        <v>14</v>
-      </c>
-      <c r="M183" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="45.75">
       <c r="A184">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B184">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C184" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" s="2">
+        <v>134</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I184" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>14</v>
+      </c>
+      <c r="M184" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D184" s="2">
-        <v>118</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H184" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="I184" t="s">
-        <v>15</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="s">
-        <v>14</v>
-      </c>
-      <c r="M184" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="45.75">
       <c r="A185">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B185">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C185" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" s="2">
+        <v>119</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="I185" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="2">
+        <v>321880</v>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>14</v>
+      </c>
+      <c r="M185" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D185" s="2">
-        <v>134</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H185" s="2">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="I185" t="s">
-        <v>15</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="s">
-        <v>14</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="45.75">
       <c r="A186">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B186">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C186" t="s">
+        <v>103</v>
+      </c>
+      <c r="D186" s="2">
+        <v>112</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" s="2">
+        <v>32</v>
+      </c>
+      <c r="I186" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>14</v>
+      </c>
+      <c r="M186" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D186" s="2">
-        <v>119</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H186" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="I186" t="s">
-        <v>15</v>
-      </c>
-      <c r="J186" s="2">
-        <v>321880</v>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="s">
-        <v>14</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="45.75">
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B187">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C187" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D187" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>14</v>
@@ -9012,7 +9008,7 @@
         <v>14</v>
       </c>
       <c r="H187" s="2">
-        <v>32</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="I187" t="s">
         <v>15</v>
@@ -9026,22 +9022,22 @@
       <c r="L187" t="s">
         <v>14</v>
       </c>
-      <c r="M187" s="1" t="s">
+      <c r="M187" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B188">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D188" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>14</v>
@@ -9053,7 +9049,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="2">
-        <v>33.700000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I188" t="s">
         <v>15</v>
@@ -9068,21 +9064,21 @@
         <v>14</v>
       </c>
       <c r="M188" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B189">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D189" s="2">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>14</v>
@@ -9094,13 +9090,13 @@
         <v>14</v>
       </c>
       <c r="H189" s="2">
-        <v>33.799999999999997</v>
+        <v>39</v>
       </c>
       <c r="I189" t="s">
         <v>15</v>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>14</v>
+      <c r="J189" s="2">
+        <v>326052</v>
       </c>
       <c r="K189" t="b">
         <v>1</v>
@@ -9109,71 +9105,71 @@
         <v>14</v>
       </c>
       <c r="M189" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="60.75">
+      <c r="A190">
+        <v>2009</v>
+      </c>
+      <c r="B190">
+        <v>2010</v>
+      </c>
+      <c r="C190" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190">
-        <v>2017</v>
-      </c>
-      <c r="B190">
-        <v>2018</v>
-      </c>
-      <c r="C190" t="s">
-        <v>104</v>
-      </c>
       <c r="D190" s="2">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H190" s="2">
-        <v>39</v>
+      <c r="F190" s="2">
+        <v>9100</v>
+      </c>
+      <c r="G190" s="2">
+        <v>3.6263739999999999E-3</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I190" t="s">
         <v>15</v>
       </c>
-      <c r="J190" s="2">
-        <v>326052</v>
+      <c r="J190" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>14</v>
-      </c>
-      <c r="M190" t="s">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="60.75">
       <c r="A191">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B191">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C191" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D191" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="2">
-        <v>9100</v>
+        <v>10321</v>
       </c>
       <c r="G191" s="2">
-        <v>3.6263739999999999E-3</v>
+        <v>2.2284660000000001E-3</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>14</v>
@@ -9194,30 +9190,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="60.75">
+    <row r="192" spans="1:13" ht="45.75">
       <c r="A192">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B192">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C192" t="s">
-        <v>107</v>
-      </c>
-      <c r="D192" s="2">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="2">
-        <v>10321</v>
-      </c>
-      <c r="G192" s="2">
-        <v>2.2284660000000001E-3</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>14</v>
+      <c r="F192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" s="2">
+        <v>638</v>
       </c>
       <c r="I192" t="s">
         <v>15</v>
@@ -9226,57 +9222,57 @@
         <v>14</v>
       </c>
       <c r="K192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="45.75">
       <c r="A193">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B193">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C193" t="s">
+        <v>109</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" s="2">
+        <v>215.6</v>
+      </c>
+      <c r="I193" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>14</v>
+      </c>
+      <c r="M193" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" s="2">
-        <v>638</v>
-      </c>
-      <c r="I193" t="s">
-        <v>15</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="s">
-        <v>14</v>
-      </c>
-      <c r="M193" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="45.75">
+    </row>
+    <row r="194" spans="1:13" ht="30.75">
       <c r="A194">
         <v>2008</v>
       </c>
@@ -9284,13 +9280,13 @@
         <v>2010</v>
       </c>
       <c r="C194" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>14</v>
+      <c r="E194" s="2">
+        <v>28</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>14</v>
@@ -9299,13 +9295,13 @@
         <v>14</v>
       </c>
       <c r="H194" s="2">
-        <v>215.6</v>
+        <v>52</v>
       </c>
       <c r="I194" t="s">
-        <v>15</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="J194" s="2">
+        <v>53000</v>
       </c>
       <c r="K194" t="b">
         <v>1</v>
@@ -9314,24 +9310,24 @@
         <v>14</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="30.75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="76.5">
       <c r="A195">
         <v>2008</v>
       </c>
       <c r="B195">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C195" t="s">
-        <v>112</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E195" s="2">
-        <v>28</v>
+        <v>111</v>
+      </c>
+      <c r="D195" s="2">
+        <v>382</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>14</v>
@@ -9340,13 +9336,13 @@
         <v>14</v>
       </c>
       <c r="H195" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I195" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J195" s="2">
-        <v>53000</v>
+        <v>682926</v>
       </c>
       <c r="K195" t="b">
         <v>1</v>
@@ -9358,36 +9354,36 @@
         <v>113</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="76.5">
+    <row r="196" spans="1:13" ht="106.5">
       <c r="A196">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="B196">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C196" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D196" s="2">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>14</v>
+      <c r="F196" s="2">
+        <v>26143</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1.15E-2</v>
       </c>
       <c r="H196" s="2">
-        <v>56</v>
+        <v>36.5</v>
       </c>
       <c r="I196" t="s">
         <v>15</v>
       </c>
       <c r="J196" s="2">
-        <v>682926</v>
+        <v>830090</v>
       </c>
       <c r="K196" t="b">
         <v>1</v>
@@ -9396,80 +9392,80 @@
         <v>14</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="106.5">
       <c r="A197">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B197">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D197" s="2">
+        <v>313</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" s="2">
+        <v>28380</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H197" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="I197" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197" s="2">
+        <v>859196</v>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="s">
+        <v>14</v>
+      </c>
+      <c r="M197" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D197" s="2">
-        <v>303</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F197" s="2">
-        <v>26143</v>
-      </c>
-      <c r="G197" s="2">
-        <v>1.15E-2</v>
-      </c>
-      <c r="H197" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="I197" t="s">
-        <v>15</v>
-      </c>
-      <c r="J197" s="2">
-        <v>830090</v>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="s">
-        <v>14</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" ht="106.5">
+    </row>
+    <row r="198" spans="1:13" ht="45.75">
       <c r="A198">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="B198">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="C198" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D198" s="2">
-        <v>313</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>14</v>
+        <v>362</v>
+      </c>
+      <c r="E198" s="2">
+        <v>378</v>
       </c>
       <c r="F198" s="2">
-        <v>28380</v>
+        <v>32658</v>
       </c>
       <c r="G198" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1084573E-2</v>
       </c>
       <c r="H198" s="2">
-        <v>36.4</v>
+        <v>44.5</v>
       </c>
       <c r="I198" t="s">
         <v>15</v>
       </c>
       <c r="J198" s="2">
-        <v>859196</v>
+        <v>813069</v>
       </c>
       <c r="K198" t="b">
         <v>1</v>
@@ -9483,34 +9479,34 @@
     </row>
     <row r="199" spans="1:13" ht="45.75">
       <c r="A199">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B199">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C199" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D199" s="2">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="E199" s="2">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="F199" s="2">
-        <v>32658</v>
+        <v>29398</v>
       </c>
       <c r="G199" s="2">
-        <v>1.1084573E-2</v>
+        <v>1.0306823999999999E-2</v>
       </c>
       <c r="H199" s="2">
-        <v>44.5</v>
+        <v>37.4</v>
       </c>
       <c r="I199" t="s">
         <v>15</v>
       </c>
       <c r="J199" s="2">
-        <v>813069</v>
+        <v>809485</v>
       </c>
       <c r="K199" t="b">
         <v>1</v>
@@ -9524,34 +9520,34 @@
     </row>
     <row r="200" spans="1:13" ht="45.75">
       <c r="A200">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B200">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C200" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D200" s="2">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E200" s="2">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="F200" s="2">
-        <v>29398</v>
+        <v>27934</v>
       </c>
       <c r="G200" s="2">
-        <v>1.0306823999999999E-2</v>
+        <v>1.1813561E-2</v>
       </c>
       <c r="H200" s="2">
-        <v>37.4</v>
+        <v>41.6</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
       </c>
       <c r="J200" s="2">
-        <v>809485</v>
+        <v>793623</v>
       </c>
       <c r="K200" t="b">
         <v>1</v>
@@ -9563,36 +9559,36 @@
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="45.75">
+    <row r="201" spans="1:13" ht="106.5">
       <c r="A201">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="B201">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C201" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D201" s="2">
-        <v>330</v>
-      </c>
-      <c r="E201" s="2">
-        <v>355</v>
+        <v>93</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F201" s="2">
-        <v>27934</v>
+        <v>7239</v>
       </c>
       <c r="G201" s="2">
-        <v>1.1813561E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H201" s="2">
-        <v>41.6</v>
+        <v>44.1</v>
       </c>
       <c r="I201" t="s">
         <v>15</v>
       </c>
       <c r="J201" s="2">
-        <v>793623</v>
+        <v>210726</v>
       </c>
       <c r="K201" t="b">
         <v>1</v>
@@ -9604,36 +9600,36 @@
         <v>119</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="106.5">
+    <row r="202" spans="1:13" ht="60.75">
       <c r="A202">
-        <v>1995</v>
+        <v>1993.5</v>
       </c>
       <c r="B202">
-        <v>1997</v>
+        <v>1994.42</v>
       </c>
       <c r="C202" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D202" s="2">
-        <v>93</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>14</v>
+        <v>140</v>
+      </c>
+      <c r="E202" s="2">
+        <v>154</v>
       </c>
       <c r="F202" s="2">
-        <v>7239</v>
+        <v>1477</v>
       </c>
       <c r="G202" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>9.478673E-2</v>
       </c>
       <c r="H202" s="2">
-        <v>44.1</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="I202" t="s">
         <v>15</v>
       </c>
       <c r="J202" s="2">
-        <v>210726</v>
+        <v>203193</v>
       </c>
       <c r="K202" t="b">
         <v>1</v>
@@ -9642,39 +9638,39 @@
         <v>14</v>
       </c>
       <c r="M202" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="45.75">
+      <c r="A203">
+        <v>2008</v>
+      </c>
+      <c r="B203">
+        <v>2009</v>
+      </c>
+      <c r="C203" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="60.75">
-      <c r="A203">
-        <v>1993.5</v>
-      </c>
-      <c r="B203">
-        <v>1994.42</v>
-      </c>
-      <c r="C203" t="s">
-        <v>121</v>
-      </c>
       <c r="D203" s="2">
-        <v>140</v>
-      </c>
-      <c r="E203" s="2">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F203" s="2">
-        <v>1477</v>
+        <v>1816</v>
       </c>
       <c r="G203" s="2">
-        <v>9.478673E-2</v>
+        <v>4.5154184999999999E-2</v>
       </c>
       <c r="H203" s="2">
-        <v>68.900000000000006</v>
+        <v>44.8</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
       </c>
       <c r="J203" s="2">
-        <v>203193</v>
+        <v>183000</v>
       </c>
       <c r="K203" t="b">
         <v>1</v>
@@ -9686,36 +9682,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="45.75">
+    <row r="204" spans="1:13" ht="91.5">
       <c r="A204">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B204">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C204" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D204" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="2">
-        <v>1816</v>
+        <v>12031</v>
       </c>
       <c r="G204" s="2">
-        <v>4.5154184999999999E-2</v>
+        <v>1.6374366000000001E-2</v>
       </c>
       <c r="H204" s="2">
-        <v>44.8</v>
+        <v>15.4</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
       </c>
       <c r="J204" s="2">
-        <v>183000</v>
+        <v>1294605</v>
       </c>
       <c r="K204" t="b">
         <v>1</v>
@@ -9724,226 +9720,226 @@
         <v>14</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="91.5">
       <c r="A205">
+        <v>2011</v>
+      </c>
+      <c r="B205">
         <v>2012</v>
       </c>
-      <c r="B205">
-        <v>2013</v>
-      </c>
       <c r="C205" t="s">
+        <v>123</v>
+      </c>
+      <c r="D205" s="2">
+        <v>198</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="2">
+        <v>13125</v>
+      </c>
+      <c r="G205" s="2">
+        <v>1.5085714E-2</v>
+      </c>
+      <c r="H205" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="I205" t="s">
+        <v>15</v>
+      </c>
+      <c r="J205" s="2">
+        <v>1237172</v>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="s">
+        <v>14</v>
+      </c>
+      <c r="M205" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D205" s="2">
-        <v>197</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F205" s="2">
-        <v>12031</v>
-      </c>
-      <c r="G205" s="2">
-        <v>1.6374366000000001E-2</v>
-      </c>
-      <c r="H205" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="I205" t="s">
-        <v>15</v>
-      </c>
-      <c r="J205" s="2">
-        <v>1294605</v>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="s">
-        <v>14</v>
-      </c>
-      <c r="M205" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="91.5">
       <c r="A206">
+        <v>2010</v>
+      </c>
+      <c r="B206">
         <v>2011</v>
       </c>
-      <c r="B206">
-        <v>2012</v>
-      </c>
       <c r="C206" t="s">
+        <v>123</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="2">
+        <v>12980</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I206" t="s">
+        <v>15</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="s">
+        <v>14</v>
+      </c>
+      <c r="M206" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D206" s="2">
-        <v>198</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F206" s="2">
-        <v>13125</v>
-      </c>
-      <c r="G206" s="2">
-        <v>1.5085714E-2</v>
-      </c>
-      <c r="H206" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="I206" t="s">
-        <v>15</v>
-      </c>
-      <c r="J206" s="2">
-        <v>1237172</v>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="s">
-        <v>14</v>
-      </c>
-      <c r="M206" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="91.5">
       <c r="A207">
+        <v>2009</v>
+      </c>
+      <c r="B207">
         <v>2010</v>
       </c>
-      <c r="B207">
-        <v>2011</v>
-      </c>
       <c r="C207" t="s">
+        <v>123</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="2">
+        <v>14015</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I207" t="s">
+        <v>15</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="s">
+        <v>14</v>
+      </c>
+      <c r="M207" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" s="2">
-        <v>12980</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H207" s="2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I207" t="s">
-        <v>15</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="s">
-        <v>14</v>
-      </c>
-      <c r="M207" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="91.5">
       <c r="A208">
+        <v>2008</v>
+      </c>
+      <c r="B208">
         <v>2009</v>
       </c>
-      <c r="B208">
-        <v>2010</v>
-      </c>
       <c r="C208" t="s">
+        <v>123</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I208" t="s">
+        <v>15</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>14</v>
+      </c>
+      <c r="M208" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F208" s="2">
-        <v>14015</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H208" s="2">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I208" t="s">
-        <v>15</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="s">
-        <v>14</v>
-      </c>
-      <c r="M208" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="91.5">
       <c r="A209">
+        <v>2007</v>
+      </c>
+      <c r="B209">
         <v>2008</v>
       </c>
-      <c r="B209">
-        <v>2009</v>
-      </c>
       <c r="C209" t="s">
+        <v>123</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="I209" t="s">
+        <v>15</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
+        <v>14</v>
+      </c>
+      <c r="M209" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H209" s="2">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I209" t="s">
-        <v>15</v>
-      </c>
-      <c r="J209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="s">
-        <v>14</v>
-      </c>
-      <c r="M209" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="91.5">
       <c r="A210">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B210">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C210" t="s">
-        <v>124</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="D210" s="2">
+        <v>204</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>14</v>
@@ -9955,13 +9951,13 @@
         <v>14</v>
       </c>
       <c r="H210" s="2">
-        <v>21.2</v>
+        <v>15.9</v>
       </c>
       <c r="I210" t="s">
         <v>15</v>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>14</v>
+      <c r="J210" s="2">
+        <v>1297505</v>
       </c>
       <c r="K210" t="b">
         <v>1</v>
@@ -9975,16 +9971,16 @@
     </row>
     <row r="211" spans="1:13" ht="91.5">
       <c r="A211">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B211">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C211" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D211" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>14</v>
@@ -9996,13 +9992,13 @@
         <v>14</v>
       </c>
       <c r="H211" s="2">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="I211" t="s">
         <v>15</v>
       </c>
       <c r="J211" s="2">
-        <v>1297505</v>
+        <v>1350353</v>
       </c>
       <c r="K211" t="b">
         <v>1</v>
@@ -10011,21 +10007,21 @@
         <v>14</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="91.5">
       <c r="A212">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B212">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C212" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D212" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>14</v>
@@ -10037,13 +10033,13 @@
         <v>14</v>
       </c>
       <c r="H212" s="2">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
       </c>
       <c r="J212" s="2">
-        <v>1350353</v>
+        <v>1335564</v>
       </c>
       <c r="K212" t="b">
         <v>1</v>
@@ -10057,16 +10053,16 @@
     </row>
     <row r="213" spans="1:13" ht="91.5">
       <c r="A213">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B213">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C213" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D213" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>14</v>
@@ -10078,13 +10074,13 @@
         <v>14</v>
       </c>
       <c r="H213" s="2">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="I213" t="s">
         <v>15</v>
       </c>
       <c r="J213" s="2">
-        <v>1335564</v>
+        <v>1313615</v>
       </c>
       <c r="K213" t="b">
         <v>1</v>
@@ -10093,21 +10089,21 @@
         <v>14</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="91.5">
       <c r="A214">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B214">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C214" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D214" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>14</v>
@@ -10119,13 +10115,13 @@
         <v>14</v>
       </c>
       <c r="H214" s="2">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
       </c>
       <c r="J214" s="2">
-        <v>1313615</v>
+        <v>1295784</v>
       </c>
       <c r="K214" t="b">
         <v>1</v>
@@ -10134,21 +10130,21 @@
         <v>14</v>
       </c>
       <c r="M214" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215">
+        <v>2008</v>
+      </c>
+      <c r="B215">
+        <v>2009</v>
+      </c>
+      <c r="C215" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="91.5">
-      <c r="A215">
-        <v>2017</v>
-      </c>
-      <c r="B215">
-        <v>2018</v>
-      </c>
-      <c r="C215" t="s">
-        <v>124</v>
-      </c>
       <c r="D215" s="2">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>14</v>
@@ -10160,36 +10156,36 @@
         <v>14</v>
       </c>
       <c r="H215" s="2">
-        <v>14.5</v>
+        <v>1.4</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
       </c>
       <c r="J215" s="2">
-        <v>1295784</v>
+        <v>68779</v>
       </c>
       <c r="K215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>14</v>
-      </c>
-      <c r="M215" s="1" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="M215" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B216">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C216" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D216" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>14</v>
@@ -10201,13 +10197,13 @@
         <v>14</v>
       </c>
       <c r="H216" s="2">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I216" t="s">
         <v>15</v>
       </c>
       <c r="J216" s="2">
-        <v>68779</v>
+        <v>64623</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -10216,18 +10212,18 @@
         <v>16</v>
       </c>
       <c r="M216" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B217">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C217" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -10248,7 +10244,7 @@
         <v>15</v>
       </c>
       <c r="J217" s="2">
-        <v>64623</v>
+        <v>54839</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -10257,21 +10253,21 @@
         <v>16</v>
       </c>
       <c r="M217" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="B218">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="C218" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D218" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>14</v>
@@ -10283,13 +10279,13 @@
         <v>14</v>
       </c>
       <c r="H218" s="2">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="I218" t="s">
         <v>15</v>
       </c>
       <c r="J218" s="2">
-        <v>54839</v>
+        <v>49064</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
@@ -10298,21 +10294,21 @@
         <v>16</v>
       </c>
       <c r="M218" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B219">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="C219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D219" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>14</v>
@@ -10324,13 +10320,13 @@
         <v>14</v>
       </c>
       <c r="H219" s="2">
-        <v>22.4</v>
+        <v>32.6</v>
       </c>
       <c r="I219" t="s">
         <v>15</v>
       </c>
       <c r="J219" s="2">
-        <v>49064</v>
+        <v>52066</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -10339,39 +10335,39 @@
         <v>16</v>
       </c>
       <c r="M219" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B220">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="C220" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D220" s="2">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>14</v>
+      <c r="F220" s="2">
+        <v>796</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0.100502513</v>
       </c>
       <c r="H220" s="2">
-        <v>32.6</v>
+        <v>130</v>
       </c>
       <c r="I220" t="s">
         <v>15</v>
       </c>
       <c r="J220" s="2">
-        <v>52066</v>
+        <v>61341</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -10380,45 +10376,45 @@
         <v>16</v>
       </c>
       <c r="M220" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="B221">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="C221" t="s">
-        <v>130</v>
-      </c>
-      <c r="D221" s="2">
-        <v>80</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" s="2">
+        <v>533</v>
       </c>
       <c r="F221" s="2">
-        <v>796</v>
+        <v>15866</v>
       </c>
       <c r="G221" s="2">
-        <v>0.100502513</v>
+        <v>3.3590000000000002E-2</v>
       </c>
       <c r="H221" s="2">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="I221" t="s">
-        <v>15</v>
-      </c>
-      <c r="J221" s="2">
-        <v>61341</v>
+        <v>24</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M221" t="s">
         <v>131</v>
@@ -10426,34 +10422,34 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="B222">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="C222" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E222" s="2">
-        <v>533</v>
-      </c>
-      <c r="F222" s="2">
-        <v>15866</v>
-      </c>
-      <c r="G222" s="2">
-        <v>3.3590000000000002E-2</v>
+        <v>221</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H222" s="2">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="I222" t="s">
         <v>24</v>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>14</v>
+      <c r="J222" s="2">
+        <v>843233</v>
       </c>
       <c r="K222" t="b">
         <v>1</v>
@@ -10462,24 +10458,24 @@
         <v>14</v>
       </c>
       <c r="M222" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="223" spans="1:13">
       <c r="A223">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B223">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C223" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E223" s="2">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>14</v>
@@ -10488,13 +10484,13 @@
         <v>14</v>
       </c>
       <c r="H223" s="2">
-        <v>365</v>
+        <v>148</v>
       </c>
       <c r="I223" t="s">
         <v>24</v>
       </c>
-      <c r="J223" s="2">
-        <v>843233</v>
+      <c r="J223" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K223" t="b">
         <v>1</v>
@@ -10504,47 +10500,6 @@
       </c>
       <c r="M223" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224">
-        <v>2011</v>
-      </c>
-      <c r="B224">
-        <v>2013</v>
-      </c>
-      <c r="C224" t="s">
-        <v>133</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E224" s="2">
-        <v>83</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H224" s="2">
-        <v>148</v>
-      </c>
-      <c r="I224" t="s">
-        <v>24</v>
-      </c>
-      <c r="J224" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="s">
-        <v>14</v>
-      </c>
-      <c r="M224" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
